--- a/cuestionario_formr_lisa_cognitivo.xlsx
+++ b/cuestionario_formr_lisa_cognitivo.xlsx
@@ -99,7 +99,7 @@
   <si>
     <t>### Usted ha sido invitado(a) a participar en la investigación **Prácticas, creencias y conocimientos en Ciencia Abierta: propuestas para las ciencias sociales**. Su objetivo es analizar el conocimiento, creencias y prácticas de ciencia abierta en académicos/as de ciencias sociales en Chile, lo que permitirá generar recomendaciones y propuestas tanto para el quehacer académico como para las políticas científicas. Usted ha sido invitado/a porque es profesor/a de planta ordinaria de alguna Facultad, Escuela, Instituto o carrera de ciencias sociales en Chile. 
 ### El investigador responsable de este estudio es el Dr. Juan Carlos Castillo, académico del Departamento de Sociología de la Facultad de Ciencias Sociales de la Universidad de Chile. La investigación es patrocinada por el Centro de Estudios de Conflicto y Cohesión Social (COES). Para decidir participar en esta investigación, es importante que considere la siguiente información: 
-### - **Participación**: Su participación consistirá en __revisar un cuestionario__ destinado a medir el conocimiento, las prácticas y las creencias en torno a la ciencia abierta. En específico, se le solicita __realizar comentarios__ cuando considere que la formulación de preguntas y/o las categorías de respuesta asociadas de cada ítem son confusas o presentan errores. Para realizar este comentario, __debe seleccionar la categoría de respuesta “(*) Comentar”__, con la cual se despliega un cuadro de texto. Asimismo, al final de la encuesta dispondrá de un cuadro de texto en donde realizar comentarios generales. En total estimamos que la entrevista tomará aproximadamente 15 minutos, y será auto-aplicado de forma online. 
+### - **Participación**: Su participación consistirá en __revisar un cuestionario__ destinado a medir el conocimiento, las prácticas y las creencias en torno a la ciencia abierta. En específico, se le solicita __realizar comentarios__ cuando considere que la formulación de preguntas y/o las categorías de respuesta asociadas de cada ítem son confusas o presentan errores. Para realizar este comentario, __debe seleccionar la categoría de respuesta “(*) Comentar”__ al final de cada pregunta o batería de preguntas, con lo cual se despliega un cuadro de texto en donde registrar el comentario. Asimismo, al final de la encuesta dispondrá de un cuadro de texto en donde realizar comentarios generales. En total estimamos que la entrevista tomará aproximadamente 15 minutos, y será auto-aplicado de forma online.
 ### - **Riesgos**: Dadas las características del estudio, no anticipamos riesgos asociados a su participación. Sin embargo, si alguna de las preguntas le produce algún malestar o incomodidad, o tiene alguna consulta que hacer durante la encuesta, podrá preguntar al responsable de la misma y/o podrá detener su participación cuando usted lo desee. 
 ### - **Beneficios**: Usted no recibirá ningún beneficio directo, ni recompensa alguna, por participar en este estudio. No obstante, su participación permitirá generar información para conocer los desafíos que las ciencias sociales enfrentan en Chile en lo que respecta a la apertura del proceso investigativo a modo de elaborar propuestas, tanto para la comunidad académica como a las políticas científicas, que permitan superar tales desafíos. 
 ### - **Voluntariedad**: Su participación es absolutamente voluntaria. Usted tendrá la libertad de contestar las preguntas que desee, como también de detener su participación en cualquier momento que lo desee. Esto no implicará ningún perjuicio para usted. 
